--- a/ESECUTIVI/LP23-325-0.xlsx
+++ b/ESECUTIVI/LP23-325-0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Utenti\00.Lavori in corso\METALTRONICA\23-325-0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Documents\Data\Progetti-GIT\HW\PCB-23-325\ESECUTIVI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA752D3E-DD11-4F24-B550-6D82427C07FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5D431C-9DC9-4F46-91D4-164249CDFE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{C5BBDCFD-CE99-4596-997B-437B9C27DA5F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C5BBDCFD-CE99-4596-997B-437B9C27DA5F}"/>
   </bookViews>
   <sheets>
     <sheet name="23-325-0" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="417">
   <si>
     <t>PCB/23-325-0          Revision: 0</t>
   </si>
@@ -1244,9 +1244,6 @@
     <t>MLCC - SMD/SMT 25V 1uF Y5V 0805 10%</t>
   </si>
   <si>
-    <t>MLCC - SMD/SMT 50V 0.01uF X7R 0603 10%</t>
-  </si>
-  <si>
     <t>C1,C2,C7,C8,C9,C10,C14,C15,C16,C17,C18,C19,C20,C21,C22,C23,C24,C25,C26,C27,C28,C29,C30,C31,C32,C33,C34,C36,C40,C49,C54,C55,C57,C58,C59,C60,C61,C63,C64</t>
   </si>
   <si>
@@ -1263,6 +1260,21 @@
   </si>
   <si>
     <t>D3,D4,D5,D6,D7,D8,D9,D10,D11,D12,D13,D14,D15,D16,D17,D18,D19</t>
+  </si>
+  <si>
+    <t>293D106X9025B2TE3</t>
+  </si>
+  <si>
+    <t>F: 	2353056</t>
+  </si>
+  <si>
+    <t>C0603X103K5REAUTO</t>
+  </si>
+  <si>
+    <t>M: 80-C0603X103K5REAUTO</t>
+  </si>
+  <si>
+    <t>MLCC - SMD/SMT 50V 199nF X7R 0603 10%</t>
   </si>
 </sst>
 </file>
@@ -1878,9 +1890,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1918,7 +1930,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2024,7 +2036,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2166,7 +2178,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2176,8 +2188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E050645-7481-45D1-98A7-F2AFA71AE27C}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2197,11 +2209,11 @@
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B1" s="8"/>
       <c r="E1" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2280,7 +2292,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>18</v>
@@ -2352,9 +2364,11 @@
       <c r="E7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="13" t="s">
+        <v>412</v>
+      </c>
       <c r="G7" s="13" t="s">
-        <v>25</v>
+        <v>413</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>35</v>
@@ -2396,7 +2410,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -2407,16 +2421,16 @@
         <v>43</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>44</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>20</v>
+        <v>414</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>21</v>
+        <v>415</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>22</v>
@@ -2436,7 +2450,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>405</v>
@@ -2866,7 +2880,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>110</v>
@@ -4912,7 +4926,7 @@
         <v>8</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D90" s="13" t="s">
         <v>325</v>
